--- a/data/trans_dic/P55$nadie-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02856883548759373</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05053422413767656</v>
+        <v>0.05053422413767657</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04086577841518057</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01474443113567872</v>
+        <v>0.01385035288556389</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01852968033180985</v>
+        <v>0.01877026099405729</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003492889560674701</v>
+        <v>0.003479144236458107</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01100290633426266</v>
+        <v>0.01114703615614052</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02034363658123346</v>
+        <v>0.02044967406592743</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01255011455420288</v>
+        <v>0.01338166449210245</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1473621808255902</v>
+        <v>0.1271609806058402</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.1184822666189652</v>
+        <v>0.1448245667774528</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1110862288566866</v>
+        <v>0.1118253004537183</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1267010169191481</v>
+        <v>0.1268821905301606</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1143149351098373</v>
+        <v>0.09679557658805291</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1672941956108429</v>
+        <v>0.1606780140916649</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04781661595350849</v>
+        <v>0.04745667834998531</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09169619050682894</v>
+        <v>0.09139422523362664</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05077090068279468</v>
+        <v>0.06298000484030129</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1213255072632966</v>
+        <v>0.1211866674584129</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05648643400834222</v>
+        <v>0.05702077843282426</v>
       </c>
     </row>
     <row r="7">
@@ -847,31 +847,31 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.01392337406320019</v>
+        <v>0.01409936634474428</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03362208136561081</v>
+        <v>0.04109467542858887</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04648213847340899</v>
+        <v>0.04831853016113026</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01521604976118356</v>
+        <v>0.0153026898389599</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02946393631822777</v>
+        <v>0.03544486791894515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007712114814494755</v>
+        <v>0.007580882195936075</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0306477410488719</v>
+        <v>0.03265841714375923</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02232387841543022</v>
+        <v>0.02502101096997873</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1277870823276625</v>
+        <v>0.1251160971426394</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.134443603749604</v>
+        <v>0.1442171183319693</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1539607260310738</v>
+        <v>0.1628033995460436</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1790993307209445</v>
+        <v>0.2053504359007157</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07539749131275376</v>
+        <v>0.07533638263409259</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2005051680268903</v>
+        <v>0.2051546403683228</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07484505198580514</v>
+        <v>0.07541720867383214</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1333397264833644</v>
+        <v>0.1392334261988901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08034039746271079</v>
+        <v>0.07294500130033515</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1443292784659205</v>
+        <v>0.1393427738484194</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07389913534083668</v>
+        <v>0.08028620310694337</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08442451724588933</v>
+        <v>0.08442451724588934</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08265294233896942</v>
@@ -979,10 +979,10 @@
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.02328221285349602</v>
+        <v>0.02280157499203537</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02268286461561306</v>
+        <v>0.02075647764729579</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01929795649225728</v>
+        <v>0.0189560063780948</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04138649166833155</v>
+        <v>0.03747324219461055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0124861283276781</v>
+        <v>0.0128832176707885</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02907077047758978</v>
+        <v>0.02965868664741694</v>
       </c>
     </row>
     <row r="12">
@@ -1014,38 +1014,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.365344256113869</v>
+        <v>0.380302073847782</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4058066719241767</v>
+        <v>0.3647799557302716</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.2063169339938425</v>
+        <v>0.211640385550485</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1928854555424006</v>
+        <v>0.1810254021336047</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09753095303602567</v>
+        <v>0.09714774422166024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1424382271267025</v>
+        <v>0.1451910152423804</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1148732287424394</v>
+        <v>0.1033039215811692</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2043242261853973</v>
+        <v>0.2075529600797064</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1564560491146629</v>
+        <v>0.1663899227228214</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09639249668004668</v>
+        <v>0.1012717795731489</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1125348607269584</v>
+        <v>0.1142334356026525</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07877426033441536</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0612391084935414</v>
+        <v>0.06123910849354137</v>
       </c>
     </row>
     <row r="14">
@@ -1116,28 +1116,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01275122056678714</v>
+        <v>0.01283338202632588</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04041114764684215</v>
+        <v>0.04022726601243032</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04385770445572175</v>
+        <v>0.0419196062580264</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01004846322812159</v>
+        <v>0.01001833760204815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007852661222872178</v>
+        <v>0.008068594268794175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03823664260518862</v>
+        <v>0.03135025506907382</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03526514812529495</v>
+        <v>0.03797931485678866</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1646457292478336</v>
+        <v>0.1806307965050507</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1144001023409927</v>
+        <v>0.1324268160376596</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1594213705203262</v>
+        <v>0.2084324747595389</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1001294226010039</v>
+        <v>0.09974452080923661</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1101872063025142</v>
+        <v>0.1102074161201214</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08773447474194328</v>
+        <v>0.08420848951163014</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1986106514890255</v>
+        <v>0.1926099415213291</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1173018126429101</v>
+        <v>0.1166374375700708</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09543106547082471</v>
+        <v>0.09890291005743541</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06888558700634588</v>
+        <v>0.07754898103576353</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1519733808552783</v>
+        <v>0.1583725555511833</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09394696910028535</v>
+        <v>0.09770857819906743</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.08287831511978425</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04571577096654536</v>
+        <v>0.04571577096654537</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06054996571720619</v>
@@ -1229,7 +1229,7 @@
         <v>0.06175447496768832</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04828688822267438</v>
+        <v>0.04828688822267437</v>
       </c>
     </row>
     <row r="17">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0299424149634934</v>
+        <v>0.02901691699966226</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01053305947733116</v>
+        <v>0.008157417747656203</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0322207882020415</v>
+        <v>0.03075173194792116</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01508180253577991</v>
+        <v>0.01522285783921976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03494082235305049</v>
+        <v>0.03624994510954131</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08560705232974312</v>
+        <v>0.08675985811115709</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04639682697974521</v>
+        <v>0.04711162068453293</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06567140122014251</v>
+        <v>0.06478859836722661</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05320471741105751</v>
+        <v>0.05405815566549491</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06553657826236772</v>
+        <v>0.06493848511532305</v>
       </c>
     </row>
     <row r="19">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>781</v>
+        <v>734</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1730</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="7">
@@ -1630,38 +1630,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4992</v>
+        <v>4308</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>3291</v>
+        <v>4023</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5887</v>
+        <v>5926</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5674</v>
+        <v>5683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6973</v>
+        <v>5905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10061</v>
+        <v>9663</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4058</v>
+        <v>4028</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7213</v>
+        <v>7189</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>4749</v>
+        <v>5891</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10666</v>
+        <v>10654</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7788</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="8">
@@ -1771,31 +1771,31 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2276</v>
+        <v>2781</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3572</v>
+        <v>3713</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3409</v>
+        <v>4101</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3609</v>
+        <v>3846</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3047</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="11">
@@ -1806,38 +1806,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6137</v>
+        <v>6008</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6138</v>
+        <v>6584</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6444</v>
+        <v>6814</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12121</v>
+        <v>13898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6661</v>
+        <v>6655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15408</v>
+        <v>15765</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7083</v>
+        <v>7137</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15428</v>
+        <v>16110</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>10765</v>
+        <v>9774</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16995</v>
+        <v>16408</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>10087</v>
+        <v>10958</v>
       </c>
     </row>
     <row r="12">
@@ -1947,10 +1947,10 @@
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1054</v>
+        <v>964</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -1959,19 +1959,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2816</v>
+        <v>2550</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2750</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="15">
@@ -1982,38 +1982,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7883</v>
+        <v>8205</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11338</v>
+        <v>10192</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>6129</v>
+        <v>6287</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8962</v>
+        <v>8411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5063</v>
+        <v>5044</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7346</v>
+        <v>7488</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7455</v>
+        <v>6704</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13902</v>
+        <v>14122</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12494</v>
+        <v>13287</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>7213</v>
+        <v>7578</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10646</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="16">
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3185</v>
+        <v>3170</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4949</v>
+        <v>4730</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>929</v>
+        <v>955</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4142</v>
+        <v>3396</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5551</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="19">
@@ -2160,40 +2160,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3804</v>
+        <v>4174</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4580</v>
+        <v>5302</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4704</v>
+        <v>6150</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>4462</v>
+        <v>4445</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6867</v>
+        <v>6591</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15653</v>
+        <v>15180</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13235</v>
+        <v>13160</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9075</v>
+        <v>9405</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>8150</v>
+        <v>9175</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16462</v>
+        <v>17155</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>14787</v>
+        <v>15379</v>
       </c>
     </row>
     <row r="20">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5064</v>
+        <v>4907</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2944</v>
+        <v>2280</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11511</v>
+        <v>10986</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>18392</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="23">
@@ -2340,40 +2340,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14478</v>
+        <v>14673</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12969</v>
+        <v>13169</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23461</v>
+        <v>23145</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>22649</v>
+        <v>23012</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>34496</v>
+        <v>34181</v>
       </c>
     </row>
     <row r="24">
